--- a/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -407,12 +407,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test_BeaconDataTransferTemplate</t>
+          <t>test_BeaconFxValueComparison</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_BeaconDataTransferTemplate_20_September_2021_01_30PM.pdf</t>
+          <t>test_BeaconFxValueComparison_21_September_2021_01_17PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -422,7 +422,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>This is smoke test case to verify error in Funds listing at Beacon Data Transfer Template</t>
+          <t>This is smoke test case to verify comparison of Fair Value, Initial Commitment, and Unfunded Commitment LC values with USD values considering FX rate value at Beacon Data Transfer Template grid</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -436,7 +436,103 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_BeaconDataDifferenceChecker</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_BeaconDataDifferenceChecker_21_September_2021_01_08PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify Total Difference between Total Ben NAV for the page and with mission control at Beacon Data Transfer Template grid</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_BeaconTrustMapAllocation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_BeaconTrustMapAllocation_21_September_2021_01_20PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify negative or 0 Trust Map percentage values</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_BeaconDataTransferTemplateErrors</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_BeaconDataTransferTemplateErrors_21_September_2021_01_14PM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify ERR and negative non SPV's values in Funds listing at Beacon Data Transfer Template grid</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_BeaconFxValueComparison_21_September_2021_01_17PM.pdf</t>
+          <t>test_BeaconFxValueComparison_23_September_2021_06_59PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_BeaconDataDifferenceChecker_21_September_2021_01_08PM.pdf</t>
+          <t>test_BeaconDataDifferenceChecker_22_September_2021_09_52PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_BeaconTrustMapAllocation_21_September_2021_01_20PM.pdf</t>
+          <t>test_BeaconTrustMapAllocation_22_September_2021_08_29PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_BeaconDataTransferTemplateErrors_21_September_2021_01_14PM.pdf</t>
+          <t>test_BeaconDataTransferTemplateErrors_22_September_2021_08_26PM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,39 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_BeaconTotalBenCompStaticInvestment</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_BeaconTotalBenCompStaticInvestment_29_September_2021_10_00PM.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>This is smoke test case to compare Total Ben NAV value for each quarter with Static Investment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_BeaconFxValueComparison_23_September_2021_06_59PM.pdf</t>
+          <t>test_BeaconFxValueComparison_01_October_2021_08_06PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_BeaconDataDifferenceChecker_22_September_2021_09_52PM.pdf</t>
+          <t>test_BeaconDataDifferenceChecker_04_October_2021_05_53PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test_BeaconTrustMapAllocation_22_September_2021_08_29PM.pdf</t>
+          <t>test_BeaconTrustMapAllocation_01_October_2021_08_17PM.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test_BeaconDataTransferTemplateErrors_22_September_2021_08_26PM.pdf</t>
+          <t>test_BeaconDataTransferTemplateErrors_01_October_2021_08_01PM.pdf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test_BeaconTotalBenCompStaticInvestment_29_September_2021_10_00PM.pdf</t>
+          <t>test_BeaconTotalBenCompStaticInvestment_01_October_2021_08_07PM.pdf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +564,39 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_ComparisonSOSwithMissionControl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_ComparisonSOSwithMissionControl_06_October_2021_06_20PM.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify compared values between SOS Funds / Investments AND Mission Control Funds / Investments values</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_BeaconFxValueComparison_01_October_2021_08_06PM.pdf</t>
+          <t>test_BeaconFxValueComparison_11_October_2021_03_27PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -427,12 +427,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Send Only when Fail=Yes</t>
+          <t>Send Only when Fail=No</t>
         </is>
       </c>
     </row>
@@ -459,7 +459,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test_ComparisonSOSwithMissionControl_06_October_2021_06_20PM.pdf</t>
+          <t>test_ComparisonSOSwithMissionControl_06_October_2021_06_43PM.pdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Skipped</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -596,7 +596,38 @@
         </is>
       </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_MissionControlDifference</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_MissionControlDifference_07_October_2021_06_31PM.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test_MissionControl</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>This is smoke test case to find difference values for NAV Rollover from Prior Period and NAV Roll for Period</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Skipped</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
+++ b/Beneficient/test_Smoke_Errors/PDFFileNameData/FileName.xlsx
@@ -1,121 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BIDS\beneficienttest\Beneficient\test_Smoke_Errors\PDFFileNameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7191D18A-E043-4F59-B462-BB49FE2CF0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
-  <si>
-    <t>test_BeaconFxValueComparison</t>
-  </si>
-  <si>
-    <t>test_BeaconFxValueComparison_11_October_2021_03_27PM.pdf</t>
-  </si>
-  <si>
-    <t>test_Beacon</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify comparison of Fair Value, Initial Commitment, and Unfunded Commitment LC values with USD values considering FX rate value at Beacon Data Transfer Template grid</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>test_BeaconDataDifferenceChecker</t>
-  </si>
-  <si>
-    <t>test_BeaconDataDifferenceChecker_04_October_2021_05_53PM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify Total Difference between Total Ben NAV for the page and with mission control at Beacon Data Transfer Template grid</t>
-  </si>
-  <si>
-    <t>Skipped</t>
-  </si>
-  <si>
-    <t>Send Only when Fail=Yes</t>
-  </si>
-  <si>
-    <t>test_BeaconTrustMapAllocation</t>
-  </si>
-  <si>
-    <t>test_BeaconTrustMapAllocation_01_October_2021_08_17PM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify negative or 0 Trust Map percentage values</t>
-  </si>
-  <si>
-    <t>test_BeaconDataTransferTemplateErrors</t>
-  </si>
-  <si>
-    <t>test_BeaconDataTransferTemplateErrors_01_October_2021_08_01PM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify ERR and negative non SPV's values in Funds listing at Beacon Data Transfer Template grid</t>
-  </si>
-  <si>
-    <t>test_BeaconTotalBenCompStaticInvestment</t>
-  </si>
-  <si>
-    <t>test_BeaconTotalBenCompStaticInvestment_01_October_2021_08_07PM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to compare Total Ben NAV value for each quarter with Static Investment</t>
-  </si>
-  <si>
-    <t>test_ComparisonSOSwithMissionControl</t>
-  </si>
-  <si>
-    <t>test_ComparisonSOSwithMissionControl_06_October_2021_06_43PM.pdf</t>
-  </si>
-  <si>
-    <t>This is smoke test case to verify compared values between SOS Funds / Investments AND Mission Control Funds / Investments values</t>
-  </si>
-  <si>
-    <t>test_MissionControlDifference</t>
-  </si>
-  <si>
-    <t>test_MissionControlDifference_07_October_2021_06_31PM.pdf</t>
-  </si>
-  <si>
-    <t>test_MissionControl</t>
-  </si>
-  <si>
-    <t>This is smoke test case to find difference values for NAV Rollover from Prior Period and NAV Roll for Period</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,161 +385,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col width="34.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="50.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="17.08984375" customWidth="1" min="3" max="3"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>test_BeaconFxValueComparison</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>test_BeaconFxValueComparison_11_March_2022_10_08AM.pdf</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify comparison of Fair Value, Initial Commitment, and Unfunded Commitment LC values with USD values considering FX rate value at Beacon Data Transfer Template grid</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_BeaconDataDifferenceChecker</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_BeaconDataDifferenceChecker_11_March_2022_09_12AM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify Total Difference between Total Ben NAV for the page and with mission control at Beacon Data Transfer Template grid</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_BeaconTrustMapAllocation</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_BeaconTrustMapAllocation_11_March_2022_01_32PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify negative or 0.000% Trust Map percentage values</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_BeaconDataTransferTemplateErrors</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_BeaconDataTransferTemplateErrors_11_March_2022_10_05AM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify ERR and negative non SPV's values in Funds listing at Beacon Data Transfer Template grid</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test_BeaconTotalBenCompStaticInvestment</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test_BeaconTotalBenCompStaticInvestment_11_March_2022_10_09AM.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test_Beacon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>This is smoke test case to compare Total Ben NAV value for each quarter with Static Investment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test_ComparisonSOSwithMissionControl</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test_ComparisonSOSwithMissionControl_11_March_2022_02_24PM.pdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test_MissionControl</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>This is smoke test case to verify compared values between SOS Funds / Investments AND Mission Control Funds / Investments values</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>test_MissionControlDifference</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test_MissionControlDifference_11_March_2022_02_37PM.pdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test_MissionControl</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>This is smoke test case to find difference values for NAV Rollover from Prior Period and NAV Roll for Period</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Send Only when Fail=Yes</t>
+        </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
